--- a/IButton/01-17/A.xlsx
+++ b/IButton/01-17/A.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683565C1-5CD8-5D4D-870E-D1E5F462912F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="20000" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="25280" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Dataset" state="visible" r:id="rId4"/>
+    <sheet name="Dataset" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -2788,14 +2789,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3158,11 +3159,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C910"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3173,7 +3183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3184,7 +3194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3195,7 +3205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3206,7 +3216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3217,7 +3227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3228,7 +3238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3239,7 +3249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3250,7 +3260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3261,7 +3271,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -3272,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3283,7 +3293,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3294,7 +3304,7 @@
         <v>8525</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3305,7 +3315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3316,7 +3326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -3327,7 +3337,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -3338,7 +3348,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -3349,7 +3359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -3360,7 +3370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -3371,7 +3381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3382,7 +3392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -3393,7 +3403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -3404,7 +3414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -3415,7 +3425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -3426,7 +3436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3437,7 +3447,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -3448,7 +3458,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -3459,7 +3469,7 @@
         <v>29.625</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3470,7 +3480,7 @@
         <v>30.5625</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -3481,7 +3491,7 @@
         <v>30.8125</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -3492,7 +3502,7 @@
         <v>30.9375</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -3503,7 +3513,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -3514,7 +3524,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -3525,7 +3535,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -3536,7 +3546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -3547,7 +3557,7 @@
         <v>30.9375</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -3558,7 +3568,7 @@
         <v>30.875</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3569,7 +3579,7 @@
         <v>30.875</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3580,7 +3590,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -3591,7 +3601,7 @@
         <v>30.375</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -3602,7 +3612,7 @@
         <v>30.3125</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -3613,7 +3623,7 @@
         <v>30.3125</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -3624,7 +3634,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -3635,7 +3645,7 @@
         <v>30.5625</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -3646,7 +3656,7 @@
         <v>30.4375</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -3657,7 +3667,7 @@
         <v>30.3125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -3668,7 +3678,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>36</v>
       </c>
@@ -3679,7 +3689,7 @@
         <v>30.375</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -3690,7 +3700,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>36</v>
       </c>
@@ -3701,7 +3711,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -3712,7 +3722,7 @@
         <v>30.5625</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -3723,7 +3733,7 @@
         <v>30.5625</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>36</v>
       </c>
@@ -3734,7 +3744,7 @@
         <v>30.5625</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -3745,7 +3755,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>36</v>
       </c>
@@ -3756,7 +3766,7 @@
         <v>30.4375</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -3767,7 +3777,7 @@
         <v>30.375</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>36</v>
       </c>
@@ -3778,7 +3788,7 @@
         <v>30.375</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -3789,7 +3799,7 @@
         <v>30.3125</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -3800,7 +3810,7 @@
         <v>30.3125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -3811,7 +3821,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>36</v>
       </c>
@@ -3822,7 +3832,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -3833,7 +3843,7 @@
         <v>30.1875</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -3844,7 +3854,7 @@
         <v>30.125</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -3855,7 +3865,7 @@
         <v>30.125</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -3866,7 +3876,7 @@
         <v>30.0625</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>36</v>
       </c>
@@ -3877,7 +3887,7 @@
         <v>30.0625</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>36</v>
       </c>
@@ -3888,7 +3898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>36</v>
       </c>
@@ -3899,7 +3909,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>36</v>
       </c>
@@ -3910,7 +3920,7 @@
         <v>29.9375</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>36</v>
       </c>
@@ -3921,7 +3931,7 @@
         <v>29.9375</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>36</v>
       </c>
@@ -3932,7 +3942,7 @@
         <v>29.9375</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>36</v>
       </c>
@@ -3943,7 +3953,7 @@
         <v>29.9375</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>36</v>
       </c>
@@ -3954,7 +3964,7 @@
         <v>29.875</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -3965,7 +3975,7 @@
         <v>29.6875</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>36</v>
       </c>
@@ -3976,7 +3986,7 @@
         <v>29.5625</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>36</v>
       </c>
@@ -3987,7 +3997,7 @@
         <v>29.375</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -3998,7 +4008,7 @@
         <v>29.4375</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>36</v>
       </c>
@@ -4009,7 +4019,7 @@
         <v>29.4375</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>36</v>
       </c>
@@ -4020,7 +4030,7 @@
         <v>29.4375</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>36</v>
       </c>
@@ -4031,7 +4041,7 @@
         <v>29.3125</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>36</v>
       </c>
@@ -4042,7 +4052,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -4053,7 +4063,7 @@
         <v>29.125</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>36</v>
       </c>
@@ -4064,7 +4074,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>36</v>
       </c>
@@ -4075,7 +4085,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>36</v>
       </c>
@@ -4086,7 +4096,7 @@
         <v>29.3125</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>36</v>
       </c>
@@ -4097,7 +4107,7 @@
         <v>29.3125</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>36</v>
       </c>
@@ -4108,7 +4118,7 @@
         <v>29.3125</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>36</v>
       </c>
@@ -4119,7 +4129,7 @@
         <v>29.1875</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>36</v>
       </c>
@@ -4130,7 +4140,7 @@
         <v>29.1875</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>36</v>
       </c>
@@ -4141,7 +4151,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>36</v>
       </c>
@@ -4152,7 +4162,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>36</v>
       </c>
@@ -4163,7 +4173,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>36</v>
       </c>
@@ -4174,7 +4184,7 @@
         <v>29.125</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>36</v>
       </c>
@@ -4185,7 +4195,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>36</v>
       </c>
@@ -4196,7 +4206,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>36</v>
       </c>
@@ -4207,7 +4217,7 @@
         <v>28.9375</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>36</v>
       </c>
@@ -4218,7 +4228,7 @@
         <v>28.9375</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>36</v>
       </c>
@@ -4229,7 +4239,7 @@
         <v>29.0625</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>36</v>
       </c>
@@ -4240,7 +4250,7 @@
         <v>29.125</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>36</v>
       </c>
@@ -4251,7 +4261,7 @@
         <v>29.0625</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>36</v>
       </c>
@@ -4262,7 +4272,7 @@
         <v>28.9375</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>36</v>
       </c>
@@ -4273,7 +4283,7 @@
         <v>28.9375</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>36</v>
       </c>
@@ -4284,7 +4294,7 @@
         <v>28.9375</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>36</v>
       </c>
@@ -4295,7 +4305,7 @@
         <v>28.9375</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>36</v>
       </c>
@@ -4306,7 +4316,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>36</v>
       </c>
@@ -4317,7 +4327,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>36</v>
       </c>
@@ -4328,7 +4338,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>36</v>
       </c>
@@ -4339,7 +4349,7 @@
         <v>29.0625</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>36</v>
       </c>
@@ -4350,7 +4360,7 @@
         <v>29.125</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>36</v>
       </c>
@@ -4361,7 +4371,7 @@
         <v>29.125</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>36</v>
       </c>
@@ -4372,7 +4382,7 @@
         <v>29.125</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>36</v>
       </c>
@@ -4383,7 +4393,7 @@
         <v>29.1875</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>36</v>
       </c>
@@ -4394,7 +4404,7 @@
         <v>29.125</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>36</v>
       </c>
@@ -4405,7 +4415,7 @@
         <v>29.0625</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>36</v>
       </c>
@@ -4416,7 +4426,7 @@
         <v>29.0625</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>36</v>
       </c>
@@ -4427,7 +4437,7 @@
         <v>28.875</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>36</v>
       </c>
@@ -4438,7 +4448,7 @@
         <v>28.875</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>36</v>
       </c>
@@ -4449,7 +4459,7 @@
         <v>28.8125</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>36</v>
       </c>
@@ -4460,7 +4470,7 @@
         <v>28.8125</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>36</v>
       </c>
@@ -4471,7 +4481,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>36</v>
       </c>
@@ -4482,7 +4492,7 @@
         <v>28.6875</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>36</v>
       </c>
@@ -4493,7 +4503,7 @@
         <v>28.625</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>36</v>
       </c>
@@ -4504,7 +4514,7 @@
         <v>28.6875</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>36</v>
       </c>
@@ -4515,7 +4525,7 @@
         <v>28.625</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -4526,7 +4536,7 @@
         <v>28.6875</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>36</v>
       </c>
@@ -4537,7 +4547,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>36</v>
       </c>
@@ -4548,7 +4558,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -4559,7 +4569,7 @@
         <v>28.6875</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>36</v>
       </c>
@@ -4570,7 +4580,7 @@
         <v>28.625</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>36</v>
       </c>
@@ -4581,7 +4591,7 @@
         <v>28.625</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>36</v>
       </c>
@@ -4592,7 +4602,7 @@
         <v>28.5625</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>36</v>
       </c>
@@ -4603,7 +4613,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>36</v>
       </c>
@@ -4614,7 +4624,7 @@
         <v>28.4375</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>36</v>
       </c>
@@ -4625,7 +4635,7 @@
         <v>28.3125</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>36</v>
       </c>
@@ -4636,7 +4646,7 @@
         <v>28.3125</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>36</v>
       </c>
@@ -4647,7 +4657,7 @@
         <v>28.3125</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>36</v>
       </c>
@@ -4658,7 +4668,7 @@
         <v>28.125</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>36</v>
       </c>
@@ -4669,7 +4679,7 @@
         <v>28.25</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>36</v>
       </c>
@@ -4680,7 +4690,7 @@
         <v>28.3125</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>36</v>
       </c>
@@ -4691,7 +4701,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>36</v>
       </c>
@@ -4702,7 +4712,7 @@
         <v>28.625</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>36</v>
       </c>
@@ -4713,7 +4723,7 @@
         <v>28.5625</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>36</v>
       </c>
@@ -4724,7 +4734,7 @@
         <v>28.4375</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>36</v>
       </c>
@@ -4735,7 +4745,7 @@
         <v>28.375</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>36</v>
       </c>
@@ -4746,7 +4756,7 @@
         <v>28.5625</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>36</v>
       </c>
@@ -4757,7 +4767,7 @@
         <v>28.5625</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>36</v>
       </c>
@@ -4768,7 +4778,7 @@
         <v>28.6875</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>36</v>
       </c>
@@ -4779,7 +4789,7 @@
         <v>28.6875</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>36</v>
       </c>
@@ -4790,7 +4800,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>36</v>
       </c>
@@ -4801,7 +4811,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>36</v>
       </c>
@@ -4812,7 +4822,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>36</v>
       </c>
@@ -4823,7 +4833,7 @@
         <v>28.6875</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>36</v>
       </c>
@@ -4834,7 +4844,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>36</v>
       </c>
@@ -4845,7 +4855,7 @@
         <v>28.8125</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>36</v>
       </c>
@@ -4856,7 +4866,7 @@
         <v>28.875</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>36</v>
       </c>
@@ -4867,7 +4877,7 @@
         <v>29.0625</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>36</v>
       </c>
@@ -4878,7 +4888,7 @@
         <v>29.1875</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>36</v>
       </c>
@@ -4889,7 +4899,7 @@
         <v>29.0625</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>36</v>
       </c>
@@ -4900,7 +4910,7 @@
         <v>28.6875</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>36</v>
       </c>
@@ -4911,7 +4921,7 @@
         <v>28.5625</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>36</v>
       </c>
@@ -4922,7 +4932,7 @@
         <v>28.5625</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>36</v>
       </c>
@@ -4933,7 +4943,7 @@
         <v>28.4375</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>36</v>
       </c>
@@ -4944,7 +4954,7 @@
         <v>27.9375</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>36</v>
       </c>
@@ -4955,7 +4965,7 @@
         <v>28.25</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>36</v>
       </c>
@@ -4966,7 +4976,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>36</v>
       </c>
@@ -4977,7 +4987,7 @@
         <v>29.375</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>36</v>
       </c>
@@ -4988,7 +4998,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>36</v>
       </c>
@@ -4999,7 +5009,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>36</v>
       </c>
@@ -5010,7 +5020,7 @@
         <v>29.4375</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>36</v>
       </c>
@@ -5021,7 +5031,7 @@
         <v>29.5625</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>36</v>
       </c>
@@ -5032,7 +5042,7 @@
         <v>29.3125</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>36</v>
       </c>
@@ -5043,7 +5053,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>36</v>
       </c>
@@ -5054,7 +5064,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>36</v>
       </c>
@@ -5065,7 +5075,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>36</v>
       </c>
@@ -5076,7 +5086,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>36</v>
       </c>
@@ -5087,7 +5097,7 @@
         <v>30.5625</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>36</v>
       </c>
@@ -5098,7 +5108,7 @@
         <v>30.75</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>36</v>
       </c>
@@ -5109,7 +5119,7 @@
         <v>30.8125</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>36</v>
       </c>
@@ -5120,7 +5130,7 @@
         <v>30.875</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>36</v>
       </c>
@@ -5131,7 +5141,7 @@
         <v>30.875</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>36</v>
       </c>
@@ -5142,7 +5152,7 @@
         <v>30.875</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>36</v>
       </c>
@@ -5153,7 +5163,7 @@
         <v>30.875</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>36</v>
       </c>
@@ -5164,7 +5174,7 @@
         <v>30.75</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>36</v>
       </c>
@@ -5175,7 +5185,7 @@
         <v>30.6875</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>36</v>
       </c>
@@ -5186,7 +5196,7 @@
         <v>30.625</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>36</v>
       </c>
@@ -5197,7 +5207,7 @@
         <v>30.5625</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>36</v>
       </c>
@@ -5208,7 +5218,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>36</v>
       </c>
@@ -5219,7 +5229,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>36</v>
       </c>
@@ -5230,7 +5240,7 @@
         <v>30.4375</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>36</v>
       </c>
@@ -5241,7 +5251,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>36</v>
       </c>
@@ -5252,7 +5262,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>36</v>
       </c>
@@ -5263,7 +5273,7 @@
         <v>30.4375</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>36</v>
       </c>
@@ -5274,7 +5284,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>36</v>
       </c>
@@ -5285,7 +5295,7 @@
         <v>30.375</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>36</v>
       </c>
@@ -5296,7 +5306,7 @@
         <v>30.375</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>36</v>
       </c>
@@ -5307,7 +5317,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>36</v>
       </c>
@@ -5318,7 +5328,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>36</v>
       </c>
@@ -5329,7 +5339,7 @@
         <v>30.5625</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>36</v>
       </c>
@@ -5340,7 +5350,7 @@
         <v>30.5625</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>36</v>
       </c>
@@ -5351,7 +5361,7 @@
         <v>30.5625</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>36</v>
       </c>
@@ -5362,7 +5372,7 @@
         <v>30.5625</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>36</v>
       </c>
@@ -5373,7 +5383,7 @@
         <v>30.5625</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>36</v>
       </c>
@@ -5384,7 +5394,7 @@
         <v>30.5625</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>36</v>
       </c>
@@ -5395,7 +5405,7 @@
         <v>30.4375</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>36</v>
       </c>
@@ -5406,7 +5416,7 @@
         <v>30.3125</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>36</v>
       </c>
@@ -5417,7 +5427,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>36</v>
       </c>
@@ -5428,7 +5438,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>36</v>
       </c>
@@ -5439,7 +5449,7 @@
         <v>30.1875</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>36</v>
       </c>
@@ -5450,7 +5460,7 @@
         <v>30.1875</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>36</v>
       </c>
@@ -5461,7 +5471,7 @@
         <v>30.125</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>36</v>
       </c>
@@ -5472,7 +5482,7 @@
         <v>30.0625</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>36</v>
       </c>
@@ -5483,7 +5493,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>36</v>
       </c>
@@ -5494,7 +5504,7 @@
         <v>29.9375</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>36</v>
       </c>
@@ -5505,7 +5515,7 @@
         <v>29.875</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>36</v>
       </c>
@@ -5516,7 +5526,7 @@
         <v>29.8125</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>36</v>
       </c>
@@ -5527,7 +5537,7 @@
         <v>29.8125</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>36</v>
       </c>
@@ -5538,7 +5548,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>36</v>
       </c>
@@ -5549,7 +5559,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>36</v>
       </c>
@@ -5560,7 +5570,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>36</v>
       </c>
@@ -5571,7 +5581,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>36</v>
       </c>
@@ -5582,7 +5592,7 @@
         <v>29.6875</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>36</v>
       </c>
@@ -5593,7 +5603,7 @@
         <v>29.625</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>36</v>
       </c>
@@ -5604,7 +5614,7 @@
         <v>29.625</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>36</v>
       </c>
@@ -5615,7 +5625,7 @@
         <v>29.6875</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>36</v>
       </c>
@@ -5626,7 +5636,7 @@
         <v>29.6875</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>36</v>
       </c>
@@ -5637,7 +5647,7 @@
         <v>29.625</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>36</v>
       </c>
@@ -5648,7 +5658,7 @@
         <v>29.5625</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>36</v>
       </c>
@@ -5659,7 +5669,7 @@
         <v>29.5625</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>36</v>
       </c>
@@ -5670,7 +5680,7 @@
         <v>29.625</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>36</v>
       </c>
@@ -5681,7 +5691,7 @@
         <v>29.6875</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>36</v>
       </c>
@@ -5692,7 +5702,7 @@
         <v>29.8125</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>36</v>
       </c>
@@ -5703,7 +5713,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>36</v>
       </c>
@@ -5714,7 +5724,7 @@
         <v>30.1875</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>36</v>
       </c>
@@ -5725,7 +5735,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>36</v>
       </c>
@@ -5736,7 +5746,7 @@
         <v>30.3125</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>36</v>
       </c>
@@ -5747,7 +5757,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>36</v>
       </c>
@@ -5758,7 +5768,7 @@
         <v>30.6875</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>36</v>
       </c>
@@ -5769,7 +5779,7 @@
         <v>30.8125</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>36</v>
       </c>
@@ -5780,7 +5790,7 @@
         <v>30.75</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>36</v>
       </c>
@@ -5791,7 +5801,7 @@
         <v>30.8125</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>36</v>
       </c>
@@ -5802,7 +5812,7 @@
         <v>30.875</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>36</v>
       </c>
@@ -5813,7 +5823,7 @@
         <v>30.875</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>36</v>
       </c>
@@ -5824,7 +5834,7 @@
         <v>30.875</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>36</v>
       </c>
@@ -5835,7 +5845,7 @@
         <v>30.8125</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>36</v>
       </c>
@@ -5846,7 +5856,7 @@
         <v>30.75</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>36</v>
       </c>
@@ -5857,7 +5867,7 @@
         <v>30.5625</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>36</v>
       </c>
@@ -5868,7 +5878,7 @@
         <v>30.5625</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>36</v>
       </c>
@@ -5879,7 +5889,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>36</v>
       </c>
@@ -5890,7 +5900,7 @@
         <v>30.5625</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>36</v>
       </c>
@@ -5901,7 +5911,7 @@
         <v>30.5625</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>36</v>
       </c>
@@ -5912,7 +5922,7 @@
         <v>30.5625</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>36</v>
       </c>
@@ -5923,7 +5933,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>36</v>
       </c>
@@ -5934,7 +5944,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>36</v>
       </c>
@@ -5945,7 +5955,7 @@
         <v>30.4375</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>36</v>
       </c>
@@ -5956,7 +5966,7 @@
         <v>30.4375</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>36</v>
       </c>
@@ -5967,7 +5977,7 @@
         <v>30.4375</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>36</v>
       </c>
@@ -5978,7 +5988,7 @@
         <v>30.4375</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>36</v>
       </c>
@@ -5989,7 +5999,7 @@
         <v>30.375</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>36</v>
       </c>
@@ -6000,7 +6010,7 @@
         <v>30.3125</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>36</v>
       </c>
@@ -6011,7 +6021,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>36</v>
       </c>
@@ -6022,7 +6032,7 @@
         <v>30.1875</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>36</v>
       </c>
@@ -6033,7 +6043,7 @@
         <v>30.125</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>36</v>
       </c>
@@ -6044,7 +6054,7 @@
         <v>30.125</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>36</v>
       </c>
@@ -6055,7 +6065,7 @@
         <v>30.125</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>36</v>
       </c>
@@ -6066,7 +6076,7 @@
         <v>30.125</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>36</v>
       </c>
@@ -6077,7 +6087,7 @@
         <v>30.0625</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>36</v>
       </c>
@@ -6088,7 +6098,7 @@
         <v>30.0625</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>36</v>
       </c>
@@ -6099,7 +6109,7 @@
         <v>30.0625</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>36</v>
       </c>
@@ -6110,7 +6120,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>36</v>
       </c>
@@ -6121,7 +6131,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>36</v>
       </c>
@@ -6132,7 +6142,7 @@
         <v>29.9375</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>36</v>
       </c>
@@ -6143,7 +6153,7 @@
         <v>29.875</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>36</v>
       </c>
@@ -6154,7 +6164,7 @@
         <v>29.8125</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>36</v>
       </c>
@@ -6165,7 +6175,7 @@
         <v>29.8125</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>36</v>
       </c>
@@ -6176,7 +6186,7 @@
         <v>29.8125</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>36</v>
       </c>
@@ -6187,7 +6197,7 @@
         <v>29.8125</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>36</v>
       </c>
@@ -6198,7 +6208,7 @@
         <v>29.8125</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>36</v>
       </c>
@@ -6209,7 +6219,7 @@
         <v>29.8125</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>36</v>
       </c>
@@ -6220,7 +6230,7 @@
         <v>29.8125</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>36</v>
       </c>
@@ -6231,7 +6241,7 @@
         <v>29.8125</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>36</v>
       </c>
@@ -6242,7 +6252,7 @@
         <v>29.875</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>36</v>
       </c>
@@ -6253,7 +6263,7 @@
         <v>29.875</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>36</v>
       </c>
@@ -6264,7 +6274,7 @@
         <v>29.875</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>36</v>
       </c>
@@ -6275,7 +6285,7 @@
         <v>29.8125</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>36</v>
       </c>
@@ -6286,7 +6296,7 @@
         <v>29.8125</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>36</v>
       </c>
@@ -6297,7 +6307,7 @@
         <v>29.6875</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>36</v>
       </c>
@@ -6308,7 +6318,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>36</v>
       </c>
@@ -6319,7 +6329,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>36</v>
       </c>
@@ -6330,7 +6340,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>36</v>
       </c>
@@ -6341,7 +6351,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>36</v>
       </c>
@@ -6352,7 +6362,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>36</v>
       </c>
@@ -6363,7 +6373,7 @@
         <v>29.6875</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>36</v>
       </c>
@@ -6374,7 +6384,7 @@
         <v>29.6875</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>36</v>
       </c>
@@ -6385,7 +6395,7 @@
         <v>29.6875</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>36</v>
       </c>
@@ -6396,7 +6406,7 @@
         <v>29.625</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>36</v>
       </c>
@@ -6407,7 +6417,7 @@
         <v>29.625</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>36</v>
       </c>
@@ -6418,7 +6428,7 @@
         <v>29.625</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>36</v>
       </c>
@@ -6429,7 +6439,7 @@
         <v>29.5625</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>36</v>
       </c>
@@ -6440,7 +6450,7 @@
         <v>29.5625</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>36</v>
       </c>
@@ -6451,7 +6461,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>36</v>
       </c>
@@ -6462,7 +6472,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>36</v>
       </c>
@@ -6473,7 +6483,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>36</v>
       </c>
@@ -6484,7 +6494,7 @@
         <v>29.4375</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>36</v>
       </c>
@@ -6495,7 +6505,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>36</v>
       </c>
@@ -6506,7 +6516,7 @@
         <v>29.6875</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>36</v>
       </c>
@@ -6517,7 +6527,7 @@
         <v>29.8125</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>36</v>
       </c>
@@ -6528,7 +6538,7 @@
         <v>29.9375</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>36</v>
       </c>
@@ -6539,7 +6549,7 @@
         <v>29.875</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>36</v>
       </c>
@@ -6550,7 +6560,7 @@
         <v>29.875</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>36</v>
       </c>
@@ -6561,7 +6571,7 @@
         <v>29.9375</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>36</v>
       </c>
@@ -6572,7 +6582,7 @@
         <v>29.875</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>36</v>
       </c>
@@ -6583,7 +6593,7 @@
         <v>29.8125</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>36</v>
       </c>
@@ -6594,7 +6604,7 @@
         <v>29.875</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>36</v>
       </c>
@@ -6605,7 +6615,7 @@
         <v>30.1875</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>36</v>
       </c>
@@ -6616,7 +6626,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>36</v>
       </c>
@@ -6627,7 +6637,7 @@
         <v>30.75</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>36</v>
       </c>
@@ -6638,7 +6648,7 @@
         <v>30.9375</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>36</v>
       </c>
@@ -6649,7 +6659,7 @@
         <v>31.0625</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>36</v>
       </c>
@@ -6660,7 +6670,7 @@
         <v>31.125</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>36</v>
       </c>
@@ -6671,7 +6681,7 @@
         <v>31.1875</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>36</v>
       </c>
@@ -6682,7 +6692,7 @@
         <v>31.1875</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>36</v>
       </c>
@@ -6693,7 +6703,7 @@
         <v>31.1875</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>36</v>
       </c>
@@ -6704,7 +6714,7 @@
         <v>31.125</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>36</v>
       </c>
@@ -6715,7 +6725,7 @@
         <v>31.125</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>36</v>
       </c>
@@ -6726,7 +6736,7 @@
         <v>31.0625</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>36</v>
       </c>
@@ -6737,7 +6747,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>36</v>
       </c>
@@ -6748,7 +6758,7 @@
         <v>30.9375</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>36</v>
       </c>
@@ -6759,7 +6769,7 @@
         <v>30.9375</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>36</v>
       </c>
@@ -6770,7 +6780,7 @@
         <v>30.9375</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>36</v>
       </c>
@@ -6781,7 +6791,7 @@
         <v>30.875</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>36</v>
       </c>
@@ -6792,7 +6802,7 @@
         <v>30.8125</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>36</v>
       </c>
@@ -6803,7 +6813,7 @@
         <v>30.75</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>36</v>
       </c>
@@ -6814,7 +6824,7 @@
         <v>30.6875</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>36</v>
       </c>
@@ -6825,7 +6835,7 @@
         <v>30.6875</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>36</v>
       </c>
@@ -6836,7 +6846,7 @@
         <v>30.6875</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>36</v>
       </c>
@@ -6847,7 +6857,7 @@
         <v>30.625</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>36</v>
       </c>
@@ -6858,7 +6868,7 @@
         <v>30.5625</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>36</v>
       </c>
@@ -6869,7 +6879,7 @@
         <v>30.5625</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>36</v>
       </c>
@@ -6880,7 +6890,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>36</v>
       </c>
@@ -6891,7 +6901,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>36</v>
       </c>
@@ -6902,7 +6912,7 @@
         <v>30.4375</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>36</v>
       </c>
@@ -6913,7 +6923,7 @@
         <v>30.4375</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>36</v>
       </c>
@@ -6924,7 +6934,7 @@
         <v>30.4375</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>36</v>
       </c>
@@ -6935,7 +6945,7 @@
         <v>30.4375</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>36</v>
       </c>
@@ -6946,7 +6956,7 @@
         <v>30.375</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>36</v>
       </c>
@@ -6957,7 +6967,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>36</v>
       </c>
@@ -6968,7 +6978,7 @@
         <v>30.1875</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>36</v>
       </c>
@@ -6979,7 +6989,7 @@
         <v>30.125</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>36</v>
       </c>
@@ -6990,7 +7000,7 @@
         <v>30.125</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>36</v>
       </c>
@@ -7001,7 +7011,7 @@
         <v>30.125</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>36</v>
       </c>
@@ -7012,7 +7022,7 @@
         <v>30.1875</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>36</v>
       </c>
@@ -7023,7 +7033,7 @@
         <v>30.1875</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>36</v>
       </c>
@@ -7034,7 +7044,7 @@
         <v>30.1875</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>36</v>
       </c>
@@ -7045,7 +7055,7 @@
         <v>30.1875</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>36</v>
       </c>
@@ -7056,7 +7066,7 @@
         <v>30.1875</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>36</v>
       </c>
@@ -7067,7 +7077,7 @@
         <v>30.125</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>36</v>
       </c>
@@ -7078,7 +7088,7 @@
         <v>30.125</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>36</v>
       </c>
@@ -7089,7 +7099,7 @@
         <v>30.125</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>36</v>
       </c>
@@ -7100,7 +7110,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>36</v>
       </c>
@@ -7111,7 +7121,7 @@
         <v>30.125</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>36</v>
       </c>
@@ -7122,7 +7132,7 @@
         <v>30.0625</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>36</v>
       </c>
@@ -7133,7 +7143,7 @@
         <v>30.125</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>36</v>
       </c>
@@ -7144,7 +7154,7 @@
         <v>30.125</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>36</v>
       </c>
@@ -7155,7 +7165,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>36</v>
       </c>
@@ -7166,7 +7176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>36</v>
       </c>
@@ -7177,7 +7187,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>36</v>
       </c>
@@ -7188,7 +7198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>36</v>
       </c>
@@ -7199,7 +7209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>36</v>
       </c>
@@ -7210,7 +7220,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>36</v>
       </c>
@@ -7221,7 +7231,7 @@
         <v>29.9375</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>36</v>
       </c>
@@ -7232,7 +7242,7 @@
         <v>29.875</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>36</v>
       </c>
@@ -7243,7 +7253,7 @@
         <v>29.8125</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>36</v>
       </c>
@@ -7254,7 +7264,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>36</v>
       </c>
@@ -7265,7 +7275,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>36</v>
       </c>
@@ -7276,7 +7286,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>36</v>
       </c>
@@ -7287,7 +7297,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>36</v>
       </c>
@@ -7298,7 +7308,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>36</v>
       </c>
@@ -7309,7 +7319,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>36</v>
       </c>
@@ -7320,7 +7330,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>36</v>
       </c>
@@ -7331,7 +7341,7 @@
         <v>29.6875</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>36</v>
       </c>
@@ -7342,7 +7352,7 @@
         <v>29.625</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>36</v>
       </c>
@@ -7353,7 +7363,7 @@
         <v>29.625</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>36</v>
       </c>
@@ -7364,7 +7374,7 @@
         <v>29.625</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>36</v>
       </c>
@@ -7375,7 +7385,7 @@
         <v>29.6875</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>36</v>
       </c>
@@ -7386,7 +7396,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>36</v>
       </c>
@@ -7397,7 +7407,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>36</v>
       </c>
@@ -7408,7 +7418,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>36</v>
       </c>
@@ -7419,7 +7429,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>36</v>
       </c>
@@ -7430,7 +7440,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>36</v>
       </c>
@@ -7441,7 +7451,7 @@
         <v>29.8125</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>36</v>
       </c>
@@ -7452,7 +7462,7 @@
         <v>29.8125</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>36</v>
       </c>
@@ -7463,7 +7473,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>36</v>
       </c>
@@ -7474,7 +7484,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>36</v>
       </c>
@@ -7485,7 +7495,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>36</v>
       </c>
@@ -7496,7 +7506,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>36</v>
       </c>
@@ -7507,7 +7517,7 @@
         <v>29.6875</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>36</v>
       </c>
@@ -7518,7 +7528,7 @@
         <v>29.6875</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>36</v>
       </c>
@@ -7529,7 +7539,7 @@
         <v>29.625</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>36</v>
       </c>
@@ -7540,7 +7550,7 @@
         <v>29.625</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>36</v>
       </c>
@@ -7551,7 +7561,7 @@
         <v>29.6875</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>36</v>
       </c>
@@ -7562,7 +7572,7 @@
         <v>29.6875</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>36</v>
       </c>
@@ -7573,7 +7583,7 @@
         <v>29.625</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>36</v>
       </c>
@@ -7584,7 +7594,7 @@
         <v>29.625</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>36</v>
       </c>
@@ -7595,7 +7605,7 @@
         <v>29.625</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>36</v>
       </c>
@@ -7606,7 +7616,7 @@
         <v>29.5625</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>36</v>
       </c>
@@ -7617,7 +7627,7 @@
         <v>29.5625</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>36</v>
       </c>
@@ -7628,7 +7638,7 @@
         <v>29.5625</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>36</v>
       </c>
@@ -7639,7 +7649,7 @@
         <v>29.4375</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>36</v>
       </c>
@@ -7650,7 +7660,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>36</v>
       </c>
@@ -7661,7 +7671,7 @@
         <v>29.5625</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>36</v>
       </c>
@@ -7672,7 +7682,7 @@
         <v>29.6875</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>36</v>
       </c>
@@ -7683,7 +7693,7 @@
         <v>29.9375</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>36</v>
       </c>
@@ -7694,7 +7704,7 @@
         <v>30.1875</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>36</v>
       </c>
@@ -7705,7 +7715,7 @@
         <v>30.3125</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>36</v>
       </c>
@@ -7716,7 +7726,7 @@
         <v>30.375</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>36</v>
       </c>
@@ -7727,7 +7737,7 @@
         <v>30.4375</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>36</v>
       </c>
@@ -7738,7 +7748,7 @@
         <v>30.375</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>36</v>
       </c>
@@ -7749,7 +7759,7 @@
         <v>30.375</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>36</v>
       </c>
@@ -7760,7 +7770,7 @@
         <v>30.375</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>36</v>
       </c>
@@ -7771,7 +7781,7 @@
         <v>30.375</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>36</v>
       </c>
@@ -7782,7 +7792,7 @@
         <v>30.375</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>36</v>
       </c>
@@ -7793,7 +7803,7 @@
         <v>30.3125</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>36</v>
       </c>
@@ -7804,7 +7814,7 @@
         <v>30.3125</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>36</v>
       </c>
@@ -7815,7 +7825,7 @@
         <v>30.3125</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>36</v>
       </c>
@@ -7826,7 +7836,7 @@
         <v>30.3125</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>36</v>
       </c>
@@ -7837,7 +7847,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>36</v>
       </c>
@@ -7848,7 +7858,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>36</v>
       </c>
@@ -7859,7 +7869,7 @@
         <v>30.1875</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>36</v>
       </c>
@@ -7870,7 +7880,7 @@
         <v>30.1875</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>36</v>
       </c>
@@ -7881,7 +7891,7 @@
         <v>30.125</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>36</v>
       </c>
@@ -7892,7 +7902,7 @@
         <v>30.125</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>36</v>
       </c>
@@ -7903,7 +7913,7 @@
         <v>30.125</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>36</v>
       </c>
@@ -7914,7 +7924,7 @@
         <v>30.125</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>36</v>
       </c>
@@ -7925,7 +7935,7 @@
         <v>30.125</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>36</v>
       </c>
@@ -7936,7 +7946,7 @@
         <v>30.0625</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>36</v>
       </c>
@@ -7947,7 +7957,7 @@
         <v>30.0625</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>36</v>
       </c>
@@ -7958,7 +7968,7 @@
         <v>30.0625</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>36</v>
       </c>
@@ -7969,7 +7979,7 @@
         <v>30.0625</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>36</v>
       </c>
@@ -7980,7 +7990,7 @@
         <v>29.4375</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>36</v>
       </c>
@@ -7991,7 +8001,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>36</v>
       </c>
@@ -8002,7 +8012,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>36</v>
       </c>
@@ -8013,7 +8023,7 @@
         <v>30.3125</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>36</v>
       </c>
@@ -8024,7 +8034,7 @@
         <v>30.8125</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>36</v>
       </c>
@@ -8035,7 +8045,7 @@
         <v>31.1875</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>36</v>
       </c>
@@ -8046,7 +8056,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>36</v>
       </c>
@@ -8057,7 +8067,7 @@
         <v>31.75</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>36</v>
       </c>
@@ -8068,7 +8078,7 @@
         <v>31.875</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>36</v>
       </c>
@@ -8079,7 +8089,7 @@
         <v>31.8125</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>36</v>
       </c>
@@ -8090,7 +8100,7 @@
         <v>31.75</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>36</v>
       </c>
@@ -8101,7 +8111,7 @@
         <v>31.6875</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>36</v>
       </c>
@@ -8112,7 +8122,7 @@
         <v>31.6875</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>36</v>
       </c>
@@ -8123,7 +8133,7 @@
         <v>31.6875</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>36</v>
       </c>
@@ -8134,7 +8144,7 @@
         <v>31.9375</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>36</v>
       </c>
@@ -8145,7 +8155,7 @@
         <v>32.3125</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>36</v>
       </c>
@@ -8156,7 +8166,7 @@
         <v>32.4375</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>36</v>
       </c>
@@ -8167,7 +8177,7 @@
         <v>32.3125</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>36</v>
       </c>
@@ -8178,7 +8188,7 @@
         <v>31.75</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>36</v>
       </c>
@@ -8189,7 +8199,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>36</v>
       </c>
@@ -8200,7 +8210,7 @@
         <v>31.4375</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>36</v>
       </c>
@@ -8211,7 +8221,7 @@
         <v>31.9375</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>36</v>
       </c>
@@ -8222,7 +8232,7 @@
         <v>32.375</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>36</v>
       </c>
@@ -8233,7 +8243,7 @@
         <v>32.625</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>36</v>
       </c>
@@ -8244,7 +8254,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>36</v>
       </c>
@@ -8255,7 +8265,7 @@
         <v>32.8125</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>36</v>
       </c>
@@ -8266,7 +8276,7 @@
         <v>32.8125</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>36</v>
       </c>
@@ -8277,7 +8287,7 @@
         <v>32.8125</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>36</v>
       </c>
@@ -8288,7 +8298,7 @@
         <v>32.8125</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>36</v>
       </c>
@@ -8299,7 +8309,7 @@
         <v>32.8125</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>36</v>
       </c>
@@ -8310,7 +8320,7 @@
         <v>32.875</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>36</v>
       </c>
@@ -8321,7 +8331,7 @@
         <v>32.625</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>36</v>
       </c>
@@ -8332,7 +8342,7 @@
         <v>32.0625</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>36</v>
       </c>
@@ -8343,7 +8353,7 @@
         <v>32.0625</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>36</v>
       </c>
@@ -8354,7 +8364,7 @@
         <v>32.0625</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>36</v>
       </c>
@@ -8365,7 +8375,7 @@
         <v>32.0625</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>36</v>
       </c>
@@ -8376,7 +8386,7 @@
         <v>32.1875</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>36</v>
       </c>
@@ -8387,7 +8397,7 @@
         <v>32.1875</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>36</v>
       </c>
@@ -8398,7 +8408,7 @@
         <v>32.625</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>36</v>
       </c>
@@ -8409,7 +8419,7 @@
         <v>33.25</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>36</v>
       </c>
@@ -8420,7 +8430,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>36</v>
       </c>
@@ -8431,7 +8441,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>36</v>
       </c>
@@ -8442,7 +8452,7 @@
         <v>33.6875</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>36</v>
       </c>
@@ -8453,7 +8463,7 @@
         <v>33.6875</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>36</v>
       </c>
@@ -8464,7 +8474,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>36</v>
       </c>
@@ -8475,7 +8485,7 @@
         <v>33.5625</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>36</v>
       </c>
@@ -8486,7 +8496,7 @@
         <v>33.5625</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>36</v>
       </c>
@@ -8497,7 +8507,7 @@
         <v>33.6875</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>36</v>
       </c>
@@ -8508,7 +8518,7 @@
         <v>33.5625</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>36</v>
       </c>
@@ -8519,7 +8529,7 @@
         <v>33.5625</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>36</v>
       </c>
@@ -8530,7 +8540,7 @@
         <v>33.5625</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>36</v>
       </c>
@@ -8541,7 +8551,7 @@
         <v>33.5625</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>36</v>
       </c>
@@ -8552,7 +8562,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>36</v>
       </c>
@@ -8563,7 +8573,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>36</v>
       </c>
@@ -8574,7 +8584,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>36</v>
       </c>
@@ -8585,7 +8595,7 @@
         <v>33.4375</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>36</v>
       </c>
@@ -8596,7 +8606,7 @@
         <v>33.4375</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>36</v>
       </c>
@@ -8607,7 +8617,7 @@
         <v>33.3125</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>36</v>
       </c>
@@ -8618,7 +8628,7 @@
         <v>33.125</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>36</v>
       </c>
@@ -8629,7 +8639,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>36</v>
       </c>
@@ -8640,7 +8650,7 @@
         <v>32.875</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>36</v>
       </c>
@@ -8651,7 +8661,7 @@
         <v>32.8125</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>36</v>
       </c>
@@ -8662,7 +8672,7 @@
         <v>32.8125</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>36</v>
       </c>
@@ -8673,7 +8683,7 @@
         <v>32.875</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>36</v>
       </c>
@@ -8684,7 +8694,7 @@
         <v>32.875</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>36</v>
       </c>
@@ -8695,7 +8705,7 @@
         <v>32.8125</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>36</v>
       </c>
@@ -8706,7 +8716,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>36</v>
       </c>
@@ -8717,7 +8727,7 @@
         <v>32.6875</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>36</v>
       </c>
@@ -8728,7 +8738,7 @@
         <v>32.6875</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>36</v>
       </c>
@@ -8739,7 +8749,7 @@
         <v>32.6875</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>36</v>
       </c>
@@ -8750,7 +8760,7 @@
         <v>32.625</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>36</v>
       </c>
@@ -8761,7 +8771,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>36</v>
       </c>
@@ -8772,7 +8782,7 @@
         <v>32.4375</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>36</v>
       </c>
@@ -8783,7 +8793,7 @@
         <v>32.375</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>36</v>
       </c>
@@ -8794,7 +8804,7 @@
         <v>32.375</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>36</v>
       </c>
@@ -8805,7 +8815,7 @@
         <v>32.4375</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>36</v>
       </c>
@@ -8816,7 +8826,7 @@
         <v>32.4375</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>36</v>
       </c>
@@ -8827,7 +8837,7 @@
         <v>32.4375</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>36</v>
       </c>
@@ -8838,7 +8848,7 @@
         <v>32.4375</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>36</v>
       </c>
@@ -8849,7 +8859,7 @@
         <v>32.375</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>36</v>
       </c>
@@ -8860,7 +8870,7 @@
         <v>32.375</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>36</v>
       </c>
@@ -8871,7 +8881,7 @@
         <v>32.375</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>36</v>
       </c>
@@ -8882,7 +8892,7 @@
         <v>32.25</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>36</v>
       </c>
@@ -8893,7 +8903,7 @@
         <v>31.875</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>36</v>
       </c>
@@ -8904,7 +8914,7 @@
         <v>31.9375</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>36</v>
       </c>
@@ -8915,7 +8925,7 @@
         <v>32.25</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>36</v>
       </c>
@@ -8926,7 +8936,7 @@
         <v>32.4375</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>36</v>
       </c>
@@ -8937,7 +8947,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>36</v>
       </c>
@@ -8948,7 +8958,7 @@
         <v>32.625</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>36</v>
       </c>
@@ -8959,7 +8969,7 @@
         <v>32.625</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>36</v>
       </c>
@@ -8970,7 +8980,7 @@
         <v>32.6875</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>36</v>
       </c>
@@ -8981,7 +8991,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>36</v>
       </c>
@@ -8992,7 +9002,7 @@
         <v>32.8125</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>36</v>
       </c>
@@ -9003,7 +9013,7 @@
         <v>32.875</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>36</v>
       </c>
@@ -9014,7 +9024,7 @@
         <v>32.875</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>36</v>
       </c>
@@ -9025,7 +9035,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>36</v>
       </c>
@@ -9036,7 +9046,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>36</v>
       </c>
@@ -9047,7 +9057,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>36</v>
       </c>
@@ -9058,7 +9068,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>36</v>
       </c>
@@ -9069,7 +9079,7 @@
         <v>32.9375</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>36</v>
       </c>
@@ -9080,7 +9090,7 @@
         <v>32.8125</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>36</v>
       </c>
@@ -9091,7 +9101,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>36</v>
       </c>
@@ -9102,7 +9112,7 @@
         <v>32.6875</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>36</v>
       </c>
@@ -9113,7 +9123,7 @@
         <v>32.625</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>36</v>
       </c>
@@ -9124,7 +9134,7 @@
         <v>32.5625</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>36</v>
       </c>
@@ -9135,7 +9145,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>36</v>
       </c>
@@ -9146,7 +9156,7 @@
         <v>32.4375</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>36</v>
       </c>
@@ -9157,7 +9167,7 @@
         <v>32.4375</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>36</v>
       </c>
@@ -9168,7 +9178,7 @@
         <v>32.375</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>36</v>
       </c>
@@ -9179,7 +9189,7 @@
         <v>32.3125</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>36</v>
       </c>
@@ -9190,7 +9200,7 @@
         <v>32.3125</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>36</v>
       </c>
@@ -9201,7 +9211,7 @@
         <v>32.25</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>36</v>
       </c>
@@ -9212,7 +9222,7 @@
         <v>32.1875</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>36</v>
       </c>
@@ -9223,7 +9233,7 @@
         <v>32.125</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>36</v>
       </c>
@@ -9234,7 +9244,7 @@
         <v>32.125</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>36</v>
       </c>
@@ -9245,7 +9255,7 @@
         <v>32.0625</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>36</v>
       </c>
@@ -9256,7 +9266,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>36</v>
       </c>
@@ -9267,7 +9277,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>36</v>
       </c>
@@ -9278,7 +9288,7 @@
         <v>31.9375</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>36</v>
       </c>
@@ -9289,7 +9299,7 @@
         <v>31.9375</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>36</v>
       </c>
@@ -9300,7 +9310,7 @@
         <v>31.875</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>36</v>
       </c>
@@ -9311,7 +9321,7 @@
         <v>31.875</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>36</v>
       </c>
@@ -9322,7 +9332,7 @@
         <v>31.8125</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>36</v>
       </c>
@@ -9333,7 +9343,7 @@
         <v>31.8125</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>36</v>
       </c>
@@ -9344,7 +9354,7 @@
         <v>31.8125</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>36</v>
       </c>
@@ -9355,7 +9365,7 @@
         <v>31.75</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>36</v>
       </c>
@@ -9366,7 +9376,7 @@
         <v>31.75</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>36</v>
       </c>
@@ -9377,7 +9387,7 @@
         <v>31.6875</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>36</v>
       </c>
@@ -9388,7 +9398,7 @@
         <v>31.6875</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>36</v>
       </c>
@@ -9399,7 +9409,7 @@
         <v>31.625</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>36</v>
       </c>
@@ -9410,7 +9420,7 @@
         <v>31.5625</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>36</v>
       </c>
@@ -9421,7 +9431,7 @@
         <v>31.4375</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>36</v>
       </c>
@@ -9432,7 +9442,7 @@
         <v>31.375</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>36</v>
       </c>
@@ -9443,7 +9453,7 @@
         <v>31.375</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>36</v>
       </c>
@@ -9454,7 +9464,7 @@
         <v>31.3125</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>36</v>
       </c>
@@ -9465,7 +9475,7 @@
         <v>31.1875</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>36</v>
       </c>
@@ -9476,7 +9486,7 @@
         <v>31.125</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>36</v>
       </c>
@@ -9487,7 +9497,7 @@
         <v>31.125</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>36</v>
       </c>
@@ -9498,7 +9508,7 @@
         <v>31.125</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>36</v>
       </c>
@@ -9509,7 +9519,7 @@
         <v>31.0625</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>36</v>
       </c>
@@ -9520,7 +9530,7 @@
         <v>31.0625</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>36</v>
       </c>
@@ -9531,7 +9541,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>36</v>
       </c>
@@ -9542,7 +9552,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>36</v>
       </c>
@@ -9553,7 +9563,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>36</v>
       </c>
@@ -9564,7 +9574,7 @@
         <v>30.9375</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>36</v>
       </c>
@@ -9575,7 +9585,7 @@
         <v>30.9375</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>36</v>
       </c>
@@ -9586,7 +9596,7 @@
         <v>30.875</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>36</v>
       </c>
@@ -9597,7 +9607,7 @@
         <v>30.9375</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>36</v>
       </c>
@@ -9608,7 +9618,7 @@
         <v>31.0625</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>36</v>
       </c>
@@ -9619,7 +9629,7 @@
         <v>31.125</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>36</v>
       </c>
@@ -9630,7 +9640,7 @@
         <v>31.1875</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>36</v>
       </c>
@@ -9641,7 +9651,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>36</v>
       </c>
@@ -9652,7 +9662,7 @@
         <v>31.3125</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>36</v>
       </c>
@@ -9663,7 +9673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>36</v>
       </c>
@@ -9674,7 +9684,7 @@
         <v>30.625</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>36</v>
       </c>
@@ -9685,7 +9695,7 @@
         <v>30.5625</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>36</v>
       </c>
@@ -9696,7 +9706,7 @@
         <v>30.6875</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>36</v>
       </c>
@@ -9707,7 +9717,7 @@
         <v>30.9375</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>36</v>
       </c>
@@ -9718,7 +9728,7 @@
         <v>31.1875</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>36</v>
       </c>
@@ -9729,7 +9739,7 @@
         <v>31.625</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>36</v>
       </c>
@@ -9740,7 +9750,7 @@
         <v>32.0625</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>36</v>
       </c>
@@ -9751,7 +9761,7 @@
         <v>32.3125</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>36</v>
       </c>
@@ -9762,7 +9772,7 @@
         <v>32.25</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>36</v>
       </c>
@@ -9773,7 +9783,7 @@
         <v>32.0625</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>36</v>
       </c>
@@ -9784,7 +9794,7 @@
         <v>32.125</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>36</v>
       </c>
@@ -9795,7 +9805,7 @@
         <v>32.1875</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>36</v>
       </c>
@@ -9806,7 +9816,7 @@
         <v>32.3125</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>36</v>
       </c>
@@ -9817,7 +9827,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>36</v>
       </c>
@@ -9828,7 +9838,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>36</v>
       </c>
@@ -9839,7 +9849,7 @@
         <v>33.4375</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>36</v>
       </c>
@@ -9850,7 +9860,7 @@
         <v>33.8125</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>36</v>
       </c>
@@ -9861,7 +9871,7 @@
         <v>33.9375</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>36</v>
       </c>
@@ -9872,7 +9882,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>36</v>
       </c>
@@ -9883,7 +9893,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>36</v>
       </c>
@@ -9894,7 +9904,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>36</v>
       </c>
@@ -9905,7 +9915,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>36</v>
       </c>
@@ -9916,7 +9926,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>36</v>
       </c>
@@ -9927,7 +9937,7 @@
         <v>33.9375</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>36</v>
       </c>
@@ -9938,7 +9948,7 @@
         <v>33.9375</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>36</v>
       </c>
@@ -9949,7 +9959,7 @@
         <v>33.875</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>36</v>
       </c>
@@ -9960,7 +9970,7 @@
         <v>33.8125</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>36</v>
       </c>
@@ -9971,7 +9981,7 @@
         <v>33.75</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>36</v>
       </c>
@@ -9982,7 +9992,7 @@
         <v>33.6875</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>36</v>
       </c>
@@ -9993,7 +10003,7 @@
         <v>33.6875</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>36</v>
       </c>
@@ -10004,7 +10014,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>36</v>
       </c>
@@ -10015,7 +10025,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>36</v>
       </c>
@@ -10026,7 +10036,7 @@
         <v>33.5625</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>36</v>
       </c>
@@ -10037,7 +10047,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>36</v>
       </c>
@@ -10048,7 +10058,7 @@
         <v>33.4375</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>36</v>
       </c>
@@ -10059,7 +10069,7 @@
         <v>33.375</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>36</v>
       </c>
@@ -10070,7 +10080,7 @@
         <v>33.375</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>36</v>
       </c>
@@ -10081,7 +10091,7 @@
         <v>33.375</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>36</v>
       </c>
@@ -10092,7 +10102,7 @@
         <v>33.25</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>36</v>
       </c>
@@ -10103,7 +10113,7 @@
         <v>33.3125</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>36</v>
       </c>
@@ -10114,7 +10124,7 @@
         <v>33.25</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>36</v>
       </c>
@@ -10125,7 +10135,7 @@
         <v>33.1875</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>36</v>
       </c>
@@ -10136,7 +10146,7 @@
         <v>33.1875</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>36</v>
       </c>
@@ -10147,7 +10157,7 @@
         <v>33.1875</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>36</v>
       </c>
@@ -10158,7 +10168,7 @@
         <v>33.25</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>36</v>
       </c>
@@ -10169,7 +10179,7 @@
         <v>33.25</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>36</v>
       </c>
@@ -10180,7 +10190,7 @@
         <v>33.3125</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>36</v>
       </c>
@@ -10191,7 +10201,7 @@
         <v>33.3125</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>36</v>
       </c>
@@ -10202,7 +10212,7 @@
         <v>33.1875</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>36</v>
       </c>
@@ -10213,7 +10223,7 @@
         <v>33.1875</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>36</v>
       </c>
@@ -10224,7 +10234,7 @@
         <v>33.125</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>36</v>
       </c>
@@ -10235,7 +10245,7 @@
         <v>33.125</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>36</v>
       </c>
@@ -10246,7 +10256,7 @@
         <v>33.1875</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>36</v>
       </c>
@@ -10257,7 +10267,7 @@
         <v>33.1875</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>36</v>
       </c>
@@ -10268,7 +10278,7 @@
         <v>33.125</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>36</v>
       </c>
@@ -10279,7 +10289,7 @@
         <v>33.125</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>36</v>
       </c>
@@ -10290,7 +10300,7 @@
         <v>33.0625</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>36</v>
       </c>
@@ -10301,7 +10311,7 @@
         <v>33.125</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>36</v>
       </c>
@@ -10312,7 +10322,7 @@
         <v>33.0625</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>36</v>
       </c>
@@ -10323,7 +10333,7 @@
         <v>33.0625</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>36</v>
       </c>
@@ -10334,7 +10344,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>36</v>
       </c>
@@ -10345,7 +10355,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>36</v>
       </c>
@@ -10356,7 +10366,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>36</v>
       </c>
@@ -10367,7 +10377,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>36</v>
       </c>
@@ -10378,7 +10388,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>36</v>
       </c>
@@ -10389,7 +10399,7 @@
         <v>33.0625</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>36</v>
       </c>
@@ -10400,7 +10410,7 @@
         <v>33.0625</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>36</v>
       </c>
@@ -10411,7 +10421,7 @@
         <v>33.0625</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>36</v>
       </c>
@@ -10422,7 +10432,7 @@
         <v>33.0625</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>36</v>
       </c>
@@ -10433,7 +10443,7 @@
         <v>33.125</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>36</v>
       </c>
@@ -10444,7 +10454,7 @@
         <v>33.125</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>36</v>
       </c>
@@ -10455,7 +10465,7 @@
         <v>33.125</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>36</v>
       </c>
@@ -10466,7 +10476,7 @@
         <v>33.125</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>36</v>
       </c>
@@ -10477,7 +10487,7 @@
         <v>33.1875</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>36</v>
       </c>
@@ -10488,7 +10498,7 @@
         <v>33.1875</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>36</v>
       </c>
@@ -10499,7 +10509,7 @@
         <v>33.1875</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>36</v>
       </c>
@@ -10510,7 +10520,7 @@
         <v>33.125</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>36</v>
       </c>
@@ -10521,7 +10531,7 @@
         <v>33.125</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>36</v>
       </c>
@@ -10532,7 +10542,7 @@
         <v>33.125</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>36</v>
       </c>
@@ -10543,7 +10553,7 @@
         <v>33.0625</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>36</v>
       </c>
@@ -10554,7 +10564,7 @@
         <v>32.9375</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>36</v>
       </c>
@@ -10565,7 +10575,7 @@
         <v>32.9375</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>36</v>
       </c>
@@ -10576,7 +10586,7 @@
         <v>32.9375</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>36</v>
       </c>
@@ -10587,7 +10597,7 @@
         <v>32.9375</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>36</v>
       </c>
@@ -10598,7 +10608,7 @@
         <v>32.9375</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>36</v>
       </c>
@@ -10609,7 +10619,7 @@
         <v>32.9375</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>36</v>
       </c>
@@ -10620,7 +10630,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>36</v>
       </c>
@@ -10631,7 +10641,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>36</v>
       </c>
@@ -10642,7 +10652,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>36</v>
       </c>
@@ -10653,7 +10663,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>36</v>
       </c>
@@ -10664,7 +10674,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>36</v>
       </c>
@@ -10675,7 +10685,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>36</v>
       </c>
@@ -10686,7 +10696,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>36</v>
       </c>
@@ -10697,7 +10707,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>36</v>
       </c>
@@ -10708,7 +10718,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>36</v>
       </c>
@@ -10719,7 +10729,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>36</v>
       </c>
@@ -10730,7 +10740,7 @@
         <v>32.9375</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>36</v>
       </c>
@@ -10741,7 +10751,7 @@
         <v>32.875</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>36</v>
       </c>
@@ -10752,7 +10762,7 @@
         <v>32.9375</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>36</v>
       </c>
@@ -10763,7 +10773,7 @@
         <v>32.875</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>36</v>
       </c>
@@ -10774,7 +10784,7 @@
         <v>32.875</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>36</v>
       </c>
@@ -10785,7 +10795,7 @@
         <v>32.8125</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>36</v>
       </c>
@@ -10796,7 +10806,7 @@
         <v>32.8125</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>36</v>
       </c>
@@ -10807,7 +10817,7 @@
         <v>32.8125</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>36</v>
       </c>
@@ -10818,7 +10828,7 @@
         <v>32.8125</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>36</v>
       </c>
@@ -10829,7 +10839,7 @@
         <v>32.8125</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>36</v>
       </c>
@@ -10840,7 +10850,7 @@
         <v>32.8125</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>36</v>
       </c>
@@ -10851,7 +10861,7 @@
         <v>32.8125</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>36</v>
       </c>
@@ -10862,7 +10872,7 @@
         <v>32.8125</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>36</v>
       </c>
@@ -10873,7 +10883,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>36</v>
       </c>
@@ -10884,7 +10894,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>36</v>
       </c>
@@ -10895,7 +10905,7 @@
         <v>32.6875</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>36</v>
       </c>
@@ -10906,7 +10916,7 @@
         <v>32.625</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>36</v>
       </c>
@@ -10917,7 +10927,7 @@
         <v>32.625</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>36</v>
       </c>
@@ -10928,7 +10938,7 @@
         <v>32.6875</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>36</v>
       </c>
@@ -10939,7 +10949,7 @@
         <v>32.6875</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>36</v>
       </c>
@@ -10950,7 +10960,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>36</v>
       </c>
@@ -10961,7 +10971,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>36</v>
       </c>
@@ -10972,7 +10982,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>36</v>
       </c>
@@ -10983,7 +10993,7 @@
         <v>32.8125</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>36</v>
       </c>
@@ -10994,7 +11004,7 @@
         <v>32.8125</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>36</v>
       </c>
@@ -11005,7 +11015,7 @@
         <v>32.8125</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>36</v>
       </c>
@@ -11016,7 +11026,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>36</v>
       </c>
@@ -11027,7 +11037,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>36</v>
       </c>
@@ -11038,7 +11048,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>36</v>
       </c>
@@ -11049,7 +11059,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>36</v>
       </c>
@@ -11060,7 +11070,7 @@
         <v>32.875</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>36</v>
       </c>
@@ -11071,7 +11081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>36</v>
       </c>
@@ -11082,7 +11092,7 @@
         <v>33.0625</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>36</v>
       </c>
@@ -11093,7 +11103,7 @@
         <v>33.125</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>36</v>
       </c>
@@ -11104,7 +11114,7 @@
         <v>33.1875</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>36</v>
       </c>
@@ -11115,7 +11125,7 @@
         <v>33.25</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>36</v>
       </c>
@@ -11126,7 +11136,7 @@
         <v>33.3125</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>36</v>
       </c>
@@ -11137,7 +11147,7 @@
         <v>33.375</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>36</v>
       </c>
@@ -11148,7 +11158,7 @@
         <v>32.6875</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>36</v>
       </c>
@@ -11159,7 +11169,7 @@
         <v>32.5625</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>36</v>
       </c>
@@ -11170,7 +11180,7 @@
         <v>32.5625</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>36</v>
       </c>
@@ -11181,7 +11191,7 @@
         <v>32.625</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>36</v>
       </c>
@@ -11192,7 +11202,7 @@
         <v>32.625</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>36</v>
       </c>
@@ -11203,7 +11213,7 @@
         <v>32.625</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>36</v>
       </c>
@@ -11214,7 +11224,7 @@
         <v>32.5625</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>36</v>
       </c>
@@ -11225,7 +11235,7 @@
         <v>32.4375</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>36</v>
       </c>
@@ -11236,7 +11246,7 @@
         <v>32.25</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>36</v>
       </c>
@@ -11247,7 +11257,7 @@
         <v>32.5625</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>36</v>
       </c>
@@ -11258,7 +11268,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>36</v>
       </c>
@@ -11269,7 +11279,7 @@
         <v>32.9375</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>36</v>
       </c>
@@ -11280,7 +11290,7 @@
         <v>32.8125</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>36</v>
       </c>
@@ -11291,7 +11301,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>36</v>
       </c>
@@ -11302,7 +11312,7 @@
         <v>32.625</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>36</v>
       </c>
@@ -11313,7 +11323,7 @@
         <v>32.4375</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>36</v>
       </c>
@@ -11324,7 +11334,7 @@
         <v>32.5625</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>36</v>
       </c>
@@ -11335,7 +11345,7 @@
         <v>32.625</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>36</v>
       </c>
@@ -11346,7 +11356,7 @@
         <v>32.625</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>36</v>
       </c>
@@ -11357,7 +11367,7 @@
         <v>32.625</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>36</v>
       </c>
@@ -11368,7 +11378,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>36</v>
       </c>
@@ -11379,7 +11389,7 @@
         <v>32.875</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>36</v>
       </c>
@@ -11390,7 +11400,7 @@
         <v>33.1875</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>36</v>
       </c>
@@ -11401,7 +11411,7 @@
         <v>33.375</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>36</v>
       </c>
@@ -11412,7 +11422,7 @@
         <v>33.4375</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>36</v>
       </c>
@@ -11423,7 +11433,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>36</v>
       </c>
@@ -11434,7 +11444,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>36</v>
       </c>
@@ -11445,7 +11455,7 @@
         <v>33.5625</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>36</v>
       </c>
@@ -11456,7 +11466,7 @@
         <v>33.5625</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>36</v>
       </c>
@@ -11467,7 +11477,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>36</v>
       </c>
@@ -11478,7 +11488,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>36</v>
       </c>
@@ -11489,7 +11499,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>36</v>
       </c>
@@ -11500,7 +11510,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>36</v>
       </c>
@@ -11511,7 +11521,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>36</v>
       </c>
@@ -11522,7 +11532,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>36</v>
       </c>
@@ -11533,7 +11543,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>36</v>
       </c>
@@ -11544,7 +11554,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>36</v>
       </c>
@@ -11555,7 +11565,7 @@
         <v>33.75</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>36</v>
       </c>
@@ -11566,7 +11576,7 @@
         <v>33.8125</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>36</v>
       </c>
@@ -11577,7 +11587,7 @@
         <v>33.8125</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
         <v>36</v>
       </c>
@@ -11588,7 +11598,7 @@
         <v>33.75</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>36</v>
       </c>
@@ -11599,7 +11609,7 @@
         <v>33.75</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>36</v>
       </c>
@@ -11610,7 +11620,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>36</v>
       </c>
@@ -11621,7 +11631,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>36</v>
       </c>
@@ -11632,7 +11642,7 @@
         <v>33.4375</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>36</v>
       </c>
@@ -11643,7 +11653,7 @@
         <v>33.4375</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>36</v>
       </c>
@@ -11654,7 +11664,7 @@
         <v>33.375</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>36</v>
       </c>
@@ -11665,7 +11675,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>36</v>
       </c>
@@ -11676,7 +11686,7 @@
         <v>33.5625</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>36</v>
       </c>
@@ -11687,7 +11697,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>36</v>
       </c>
@@ -11698,7 +11708,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>36</v>
       </c>
@@ -11709,7 +11719,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>36</v>
       </c>
@@ -11720,7 +11730,7 @@
         <v>33.6875</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>36</v>
       </c>
@@ -11731,7 +11741,7 @@
         <v>33.6875</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>36</v>
       </c>
@@ -11742,7 +11752,7 @@
         <v>33.6875</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>36</v>
       </c>
@@ -11753,7 +11763,7 @@
         <v>33.6875</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>36</v>
       </c>
@@ -11764,7 +11774,7 @@
         <v>33.6875</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>36</v>
       </c>
@@ -11775,7 +11785,7 @@
         <v>33.5625</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>36</v>
       </c>
@@ -11786,7 +11796,7 @@
         <v>33.5625</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>36</v>
       </c>
@@ -11797,7 +11807,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>36</v>
       </c>
@@ -11808,7 +11818,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>36</v>
       </c>
@@ -11819,7 +11829,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
         <v>36</v>
       </c>
@@ -11830,7 +11840,7 @@
         <v>33.5625</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>36</v>
       </c>
@@ -11841,7 +11851,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>36</v>
       </c>
@@ -11852,7 +11862,7 @@
         <v>33.6875</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>36</v>
       </c>
@@ -11863,7 +11873,7 @@
         <v>33.75</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>36</v>
       </c>
@@ -11874,7 +11884,7 @@
         <v>33.5625</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>36</v>
       </c>
@@ -11885,7 +11895,7 @@
         <v>33.3125</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>36</v>
       </c>
@@ -11896,7 +11906,7 @@
         <v>33.3125</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>36</v>
       </c>
@@ -11907,7 +11917,7 @@
         <v>33.4375</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>36</v>
       </c>
@@ -11918,7 +11928,7 @@
         <v>33.5625</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>36</v>
       </c>
@@ -11929,7 +11939,7 @@
         <v>33.6875</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>36</v>
       </c>
@@ -11940,7 +11950,7 @@
         <v>33.75</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>36</v>
       </c>
@@ -11951,7 +11961,7 @@
         <v>33.8125</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>36</v>
       </c>
@@ -11962,7 +11972,7 @@
         <v>33.875</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>36</v>
       </c>
@@ -11973,7 +11983,7 @@
         <v>33.9375</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>36</v>
       </c>
@@ -11984,7 +11994,7 @@
         <v>34.0625</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>36</v>
       </c>
@@ -11995,7 +12005,7 @@
         <v>34.0625</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>36</v>
       </c>
@@ -12006,7 +12016,7 @@
         <v>34.125</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>36</v>
       </c>
@@ -12017,7 +12027,7 @@
         <v>34.125</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>36</v>
       </c>
@@ -12028,7 +12038,7 @@
         <v>33.9375</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
         <v>36</v>
       </c>
@@ -12039,7 +12049,7 @@
         <v>33.875</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>36</v>
       </c>
@@ -12050,7 +12060,7 @@
         <v>33.875</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>36</v>
       </c>
@@ -12061,7 +12071,7 @@
         <v>33.875</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>36</v>
       </c>
@@ -12072,7 +12082,7 @@
         <v>33.875</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>36</v>
       </c>
@@ -12083,7 +12093,7 @@
         <v>33.9375</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>36</v>
       </c>
@@ -12094,7 +12104,7 @@
         <v>33.875</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
         <v>36</v>
       </c>
@@ -12105,7 +12115,7 @@
         <v>33.875</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
         <v>36</v>
       </c>
@@ -12116,7 +12126,7 @@
         <v>33.875</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>36</v>
       </c>
@@ -12127,7 +12137,7 @@
         <v>33.9375</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>36</v>
       </c>
@@ -12138,7 +12148,7 @@
         <v>33.9375</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>36</v>
       </c>
@@ -12149,7 +12159,7 @@
         <v>33.9375</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>36</v>
       </c>
@@ -12160,7 +12170,7 @@
         <v>33.9375</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
         <v>36</v>
       </c>
@@ -12171,7 +12181,7 @@
         <v>33.875</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
         <v>36</v>
       </c>
@@ -12182,7 +12192,7 @@
         <v>33.875</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
         <v>36</v>
       </c>
@@ -12193,7 +12203,7 @@
         <v>33.875</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
         <v>36</v>
       </c>
@@ -12204,7 +12214,7 @@
         <v>33.8125</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
         <v>36</v>
       </c>
@@ -12215,7 +12225,7 @@
         <v>33.875</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>36</v>
       </c>
@@ -12226,7 +12236,7 @@
         <v>33.8125</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
         <v>36</v>
       </c>
@@ -12237,7 +12247,7 @@
         <v>33.8125</v>
       </c>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
         <v>36</v>
       </c>
@@ -12248,7 +12258,7 @@
         <v>33.875</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>36</v>
       </c>
@@ -12259,7 +12269,7 @@
         <v>33.875</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
         <v>36</v>
       </c>
@@ -12270,7 +12280,7 @@
         <v>33.875</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
         <v>36</v>
       </c>
@@ -12281,7 +12291,7 @@
         <v>33.6875</v>
       </c>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
         <v>36</v>
       </c>
@@ -12292,7 +12302,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
         <v>36</v>
       </c>
@@ -12303,7 +12313,7 @@
         <v>33.5625</v>
       </c>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
         <v>36</v>
       </c>
@@ -12314,7 +12324,7 @@
         <v>33.6875</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
         <v>36</v>
       </c>
@@ -12325,7 +12335,7 @@
         <v>33.5625</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
         <v>36</v>
       </c>
@@ -12336,7 +12346,7 @@
         <v>33.6875</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
         <v>36</v>
       </c>
@@ -12347,7 +12357,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
         <v>36</v>
       </c>
@@ -12358,7 +12368,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>36</v>
       </c>
@@ -12369,7 +12379,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
         <v>36</v>
       </c>
@@ -12380,7 +12390,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
         <v>36</v>
       </c>
@@ -12391,7 +12401,7 @@
         <v>33.5625</v>
       </c>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
         <v>36</v>
       </c>
@@ -12402,7 +12412,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="841" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
         <v>36</v>
       </c>
@@ -12413,7 +12423,7 @@
         <v>33.5625</v>
       </c>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
         <v>36</v>
       </c>
@@ -12424,7 +12434,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
         <v>36</v>
       </c>
@@ -12435,7 +12445,7 @@
         <v>34.25</v>
       </c>
     </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
         <v>36</v>
       </c>
@@ -12446,7 +12456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
         <v>36</v>
       </c>
@@ -12457,7 +12467,7 @@
         <v>33.75</v>
       </c>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
         <v>36</v>
       </c>
@@ -12468,7 +12478,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
         <v>36</v>
       </c>
@@ -12479,7 +12489,7 @@
         <v>33.6875</v>
       </c>
     </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
         <v>36</v>
       </c>
@@ -12490,7 +12500,7 @@
         <v>33.125</v>
       </c>
     </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
         <v>36</v>
       </c>
@@ -12501,7 +12511,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
         <v>36</v>
       </c>
@@ -12512,7 +12522,7 @@
         <v>33.3125</v>
       </c>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
         <v>36</v>
       </c>
@@ -12523,7 +12533,7 @@
         <v>33.5625</v>
       </c>
     </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
         <v>36</v>
       </c>
@@ -12534,7 +12544,7 @@
         <v>33.6875</v>
       </c>
     </row>
-    <row r="853" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
         <v>36</v>
       </c>
@@ -12545,7 +12555,7 @@
         <v>33.8125</v>
       </c>
     </row>
-    <row r="854" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
         <v>36</v>
       </c>
@@ -12556,7 +12566,7 @@
         <v>33.875</v>
       </c>
     </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
         <v>36</v>
       </c>
@@ -12567,7 +12577,7 @@
         <v>33.875</v>
       </c>
     </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
         <v>36</v>
       </c>
@@ -12578,7 +12588,7 @@
         <v>33.9375</v>
       </c>
     </row>
-    <row r="857" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
         <v>36</v>
       </c>
@@ -12589,7 +12599,7 @@
         <v>33.6875</v>
       </c>
     </row>
-    <row r="858" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
         <v>36</v>
       </c>
@@ -12600,7 +12610,7 @@
         <v>33.375</v>
       </c>
     </row>
-    <row r="859" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
         <v>36</v>
       </c>
@@ -12611,7 +12621,7 @@
         <v>33.3125</v>
       </c>
     </row>
-    <row r="860" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
         <v>36</v>
       </c>
@@ -12622,7 +12632,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="861" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
         <v>36</v>
       </c>
@@ -12633,7 +12643,7 @@
         <v>33.4375</v>
       </c>
     </row>
-    <row r="862" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
         <v>36</v>
       </c>
@@ -12644,7 +12654,7 @@
         <v>33.25</v>
       </c>
     </row>
-    <row r="863" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
         <v>36</v>
       </c>
@@ -12655,7 +12665,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="864" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
         <v>36</v>
       </c>
@@ -12666,7 +12676,7 @@
         <v>33.75</v>
       </c>
     </row>
-    <row r="865" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
         <v>36</v>
       </c>
@@ -12677,7 +12687,7 @@
         <v>33.8125</v>
       </c>
     </row>
-    <row r="866" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
         <v>36</v>
       </c>
@@ -12688,7 +12698,7 @@
         <v>33.9375</v>
       </c>
     </row>
-    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
         <v>36</v>
       </c>
@@ -12699,7 +12709,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="868" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
         <v>36</v>
       </c>
@@ -12710,7 +12720,7 @@
         <v>33.8125</v>
       </c>
     </row>
-    <row r="869" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
         <v>36</v>
       </c>
@@ -12721,7 +12731,7 @@
         <v>33.875</v>
       </c>
     </row>
-    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
         <v>36</v>
       </c>
@@ -12732,7 +12742,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="871" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
         <v>36</v>
       </c>
@@ -12743,7 +12753,7 @@
         <v>34.125</v>
       </c>
     </row>
-    <row r="872" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
         <v>36</v>
       </c>
@@ -12754,7 +12764,7 @@
         <v>33.875</v>
       </c>
     </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
         <v>36</v>
       </c>
@@ -12765,7 +12775,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="874" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
         <v>36</v>
       </c>
@@ -12776,7 +12786,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="875" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
         <v>36</v>
       </c>
@@ -12787,7 +12797,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="876" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
         <v>36</v>
       </c>
@@ -12798,7 +12808,7 @@
         <v>33.75</v>
       </c>
     </row>
-    <row r="877" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
         <v>36</v>
       </c>
@@ -12809,7 +12819,7 @@
         <v>33.4375</v>
       </c>
     </row>
-    <row r="878" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
         <v>36</v>
       </c>
@@ -12820,7 +12830,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="879" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
         <v>36</v>
       </c>
@@ -12831,7 +12841,7 @@
         <v>33.75</v>
       </c>
     </row>
-    <row r="880" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
         <v>36</v>
       </c>
@@ -12842,7 +12852,7 @@
         <v>33.8125</v>
       </c>
     </row>
-    <row r="881" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
         <v>36</v>
       </c>
@@ -12853,7 +12863,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="882" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
         <v>36</v>
       </c>
@@ -12864,7 +12874,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="883" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
         <v>36</v>
       </c>
@@ -12875,7 +12885,7 @@
         <v>33.6875</v>
       </c>
     </row>
-    <row r="884" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
         <v>36</v>
       </c>
@@ -12886,7 +12896,7 @@
         <v>33.75</v>
       </c>
     </row>
-    <row r="885" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
         <v>36</v>
       </c>
@@ -12897,7 +12907,7 @@
         <v>33.8125</v>
       </c>
     </row>
-    <row r="886" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
         <v>36</v>
       </c>
@@ -12908,7 +12918,7 @@
         <v>33.875</v>
       </c>
     </row>
-    <row r="887" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
         <v>36</v>
       </c>
@@ -12919,7 +12929,7 @@
         <v>33.9375</v>
       </c>
     </row>
-    <row r="888" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
         <v>36</v>
       </c>
@@ -12930,7 +12940,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="889" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
         <v>36</v>
       </c>
@@ -12941,7 +12951,7 @@
         <v>34.0625</v>
       </c>
     </row>
-    <row r="890" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
         <v>36</v>
       </c>
@@ -12952,7 +12962,7 @@
         <v>34.125</v>
       </c>
     </row>
-    <row r="891" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
         <v>36</v>
       </c>
@@ -12963,7 +12973,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="892" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
         <v>36</v>
       </c>
@@ -12974,7 +12984,7 @@
         <v>33.75</v>
       </c>
     </row>
-    <row r="893" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
         <v>36</v>
       </c>
@@ -12985,7 +12995,7 @@
         <v>33.6875</v>
       </c>
     </row>
-    <row r="894" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
         <v>36</v>
       </c>
@@ -12996,7 +13006,7 @@
         <v>33.625</v>
       </c>
     </row>
-    <row r="895" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
         <v>36</v>
       </c>
@@ -13007,7 +13017,7 @@
         <v>33.5625</v>
       </c>
     </row>
-    <row r="896" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
         <v>36</v>
       </c>
@@ -13018,7 +13028,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="897" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
         <v>36</v>
       </c>
@@ -13029,7 +13039,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="898" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
         <v>36</v>
       </c>
@@ -13040,7 +13050,7 @@
         <v>33.4375</v>
       </c>
     </row>
-    <row r="899" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
         <v>36</v>
       </c>
@@ -13051,7 +13061,7 @@
         <v>33.375</v>
       </c>
     </row>
-    <row r="900" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
         <v>36</v>
       </c>
@@ -13062,7 +13072,7 @@
         <v>33.3125</v>
       </c>
     </row>
-    <row r="901" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
         <v>36</v>
       </c>
@@ -13073,7 +13083,7 @@
         <v>33.3125</v>
       </c>
     </row>
-    <row r="902" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
         <v>36</v>
       </c>
@@ -13084,7 +13094,7 @@
         <v>33.1875</v>
       </c>
     </row>
-    <row r="903" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
         <v>36</v>
       </c>
@@ -13095,7 +13105,7 @@
         <v>33.125</v>
       </c>
     </row>
-    <row r="904" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
         <v>36</v>
       </c>
@@ -13106,7 +13116,7 @@
         <v>33.0625</v>
       </c>
     </row>
-    <row r="905" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
         <v>36</v>
       </c>
@@ -13117,7 +13127,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="906" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
         <v>36</v>
       </c>
@@ -13128,7 +13138,7 @@
         <v>32.9375</v>
       </c>
     </row>
-    <row r="907" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
         <v>36</v>
       </c>
@@ -13139,7 +13149,7 @@
         <v>32.875</v>
       </c>
     </row>
-    <row r="908" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
         <v>36</v>
       </c>
@@ -13150,7 +13160,7 @@
         <v>32.8125</v>
       </c>
     </row>
-    <row r="909" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
         <v>36</v>
       </c>
@@ -13161,7 +13171,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="910" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
         <v>921</v>
       </c>
@@ -13171,6 +13181,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>